--- a/data/tehilim-data/101.xlsx
+++ b/data/tehilim-data/101.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="151">
   <si>
     <t>original</t>
   </si>
@@ -31,7 +31,7 @@
     <t>מִזְמוֹר</t>
   </si>
   <si>
-    <t>псалом</t>
+    <t>песнопение</t>
   </si>
   <si>
     <t>חֶסֶד</t>
@@ -40,10 +40,10 @@
     <t>о милости</t>
   </si>
   <si>
-    <t>וּמִשְׁפָּט</t>
-  </si>
-  <si>
-    <t>и суде</t>
+    <t>וּמִשְׁפָּט</t>
+  </si>
+  <si>
+    <t>и правосудии</t>
   </si>
   <si>
     <t>אָשִׁירָה</t>
@@ -64,10 +64,10 @@
     <t>Господи</t>
   </si>
   <si>
-    <t>אֲזַמֵּרָה</t>
-  </si>
-  <si>
-    <t>буду воспевать</t>
+    <t>אֲזַמֵּרָה</t>
+  </si>
+  <si>
+    <t>пропою (псалмы)</t>
   </si>
   <si>
     <t>ב</t>
@@ -103,16 +103,16 @@
     <t>ко мне</t>
   </si>
   <si>
-    <t>אֲתַהֵלֵךְ</t>
-  </si>
-  <si>
-    <t>буду ходить</t>
-  </si>
-  <si>
-    <t>בְּתָם</t>
-  </si>
-  <si>
-    <t>в непорочности</t>
+    <t>אֶתְהַלֵּךְ</t>
+  </si>
+  <si>
+    <t>рассказывать буду</t>
+  </si>
+  <si>
+    <t>בְּתָם</t>
+  </si>
+  <si>
+    <t>в безупречности</t>
   </si>
   <si>
     <t>לְבָבִי</t>
@@ -166,16 +166,19 @@
     <t>беззаконное</t>
   </si>
   <si>
-    <t>עֲשֹׂה־סֵטִים</t>
-  </si>
-  <si>
-    <t>ненавижу делающих</t>
-  </si>
-  <si>
-    <t>שָׂנֵאתִי</t>
-  </si>
-  <si>
-    <t>отступничество</t>
+    <t>סֵטִים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ненавижу </t>
+  </si>
+  <si>
+    <t>עֹשֵׂה</t>
+  </si>
+  <si>
+    <t>делающего</t>
+  </si>
+  <si>
+    <t>извращенное</t>
   </si>
   <si>
     <t>לֹא</t>
@@ -202,10 +205,10 @@
     <t>сердце</t>
   </si>
   <si>
-    <t>עִקֵּשׁ</t>
-  </si>
-  <si>
-    <t>коварное</t>
+    <t>עִקֵּשׁ</t>
+  </si>
+  <si>
+    <t>упрямого</t>
   </si>
   <si>
     <t>יָסוּר</t>
@@ -235,10 +238,16 @@
     <t>ה</t>
   </si>
   <si>
-    <t>מְלָשְׁנִי</t>
-  </si>
-  <si>
-    <t>тайно клевещущего</t>
+    <t>מְלָשְׁנִי</t>
+  </si>
+  <si>
+    <t>сплетничающего</t>
+  </si>
+  <si>
+    <t>בַסֵּתֶר</t>
+  </si>
+  <si>
+    <t>в тайне</t>
   </si>
   <si>
     <t>בַסֵּתֶר</t>
@@ -253,22 +262,22 @@
     <t>его</t>
   </si>
   <si>
-    <t>אוֹתוֹ</t>
-  </si>
-  <si>
-    <t>искореню</t>
-  </si>
-  <si>
     <t>אַצְמִית</t>
   </si>
   <si>
-    <t>надменного</t>
-  </si>
-  <si>
-    <t>גְּבַהּ־עֵינַיִם</t>
-  </si>
-  <si>
-    <t>и гордого</t>
+    <t>истреблю</t>
+  </si>
+  <si>
+    <t>גְּבַהּ</t>
+  </si>
+  <si>
+    <t>заносчивого</t>
+  </si>
+  <si>
+    <t>עֵינַיִם</t>
+  </si>
+  <si>
+    <t>глазами</t>
   </si>
   <si>
     <t>וּרְחַב</t>
@@ -292,13 +301,13 @@
     <t>ו</t>
   </si>
   <si>
-    <t>очи мои</t>
-  </si>
-  <si>
-    <t>בְּנֶאֶמְנֵי</t>
-  </si>
-  <si>
-    <t>на верных</t>
+    <t>глаза мои</t>
+  </si>
+  <si>
+    <t>בְּנֶאֱמָנֵי</t>
+  </si>
+  <si>
+    <t>обращу (на) верных</t>
   </si>
   <si>
     <t>אֶרֶץ</t>
@@ -343,55 +352,67 @@
     <t>непорочным</t>
   </si>
   <si>
-    <t>יְשָׁרְתֵנִי</t>
-  </si>
-  <si>
-    <t>он будет служить мне</t>
+    <t>יְשָׁרְתֵנִי</t>
+  </si>
+  <si>
+    <t>будет прислуживать мне</t>
   </si>
   <si>
     <t>ז</t>
   </si>
   <si>
-    <t>לֹא־יֵשֵׁב</t>
-  </si>
-  <si>
-    <t>не будет жить</t>
-  </si>
-  <si>
-    <t>в доме моем</t>
+    <t>יֵשֵׁב</t>
+  </si>
+  <si>
+    <t>усадится</t>
+  </si>
+  <si>
+    <t>בְּקֶרֶב</t>
+  </si>
+  <si>
+    <t>в</t>
+  </si>
+  <si>
+    <t>בֵּיתִי</t>
+  </si>
+  <si>
+    <t>доме моем</t>
   </si>
   <si>
     <t>делающий</t>
   </si>
   <si>
-    <t>עֹשֵׂה</t>
-  </si>
-  <si>
-    <t>коварство</t>
-  </si>
-  <si>
-    <t>רְמִיָּה</t>
+    <t>רְמִיָּה</t>
+  </si>
+  <si>
+    <t>обман</t>
+  </si>
+  <si>
+    <t>דֹּבֵר</t>
   </si>
   <si>
     <t>говорящий</t>
   </si>
   <si>
-    <t>דֹּבֵר</t>
+    <t>שְׁקָרִים</t>
   </si>
   <si>
     <t>ложь</t>
   </si>
   <si>
-    <t>שְׁקָרִים</t>
-  </si>
-  <si>
-    <t>не будет стоять</t>
-  </si>
-  <si>
-    <t>לֹא־יִכּוֹן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לְנֶגֶד עֵינָי </t>
+    <t>יִכּוֹן</t>
+  </si>
+  <si>
+    <t>расположится</t>
+  </si>
+  <si>
+    <t>напротив</t>
+  </si>
+  <si>
+    <t>עֵינָי</t>
+  </si>
+  <si>
+    <t>глаз моих</t>
   </si>
   <si>
     <t>ח</t>
@@ -403,10 +424,22 @@
     <t>каждое утро</t>
   </si>
   <si>
-    <t>כָּל־רִשְׁעֵי־אָרֶץ</t>
-  </si>
-  <si>
-    <t>всех нечестивых</t>
+    <t>буду истреблять</t>
+  </si>
+  <si>
+    <t>כָּל</t>
+  </si>
+  <si>
+    <t>всех</t>
+  </si>
+  <si>
+    <t>רִשְׁעֵי</t>
+  </si>
+  <si>
+    <t>злодеев</t>
+  </si>
+  <si>
+    <t>אָרֶץ</t>
   </si>
   <si>
     <t>לְהַכְרִית</t>
@@ -437,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -445,11 +478,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF0D0D0D"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -478,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -497,8 +536,26 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -742,10 +799,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -758,10 +815,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -790,10 +847,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -846,26 +903,26 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -942,513 +999,569 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="5">
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="5">
         <v>4.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="5">
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5">
         <v>5.0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    <row r="43">
+      <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+      <c r="B47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="4" t="s">
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>79</v>
+      <c r="B50" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>56</v>
+      <c r="A51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="5">
-        <v>6.0</v>
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="4" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+      <c r="B57" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="4" t="s">
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="5">
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="5">
         <v>7.0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="A67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B68" s="4" t="s">
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="4" t="s">
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="4" t="s">
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="3" t="s">
+    <row r="72">
+      <c r="A72" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="3" t="s">
+    <row r="73">
+      <c r="A73" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="s">
+      <c r="B73" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" s="5">
         <v>8.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B80" s="4" t="s">
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="3" t="s">
+    <row r="82">
+      <c r="A82" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B82" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="6"/>
-      <c r="B82" s="4"/>
-    </row>
     <row r="83">
-      <c r="A83" s="7"/>
+      <c r="A83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="7"/>
+      <c r="A84" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="7"/>
+      <c r="A85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="7"/>
+      <c r="A86" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="7"/>
+      <c r="A87" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="7"/>
+      <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
+      <c r="A90" s="13"/>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
+      <c r="A91" s="13"/>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
+      <c r="A92" s="13"/>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
+      <c r="A93" s="13"/>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
+      <c r="A94" s="13"/>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
+      <c r="A95" s="13"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
+      <c r="A96" s="13"/>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
+      <c r="A97" s="13"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
+      <c r="A98" s="13"/>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
+      <c r="A99" s="13"/>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
+      <c r="A100" s="13"/>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
+      <c r="A101" s="13"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
+      <c r="A102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
+      <c r="A103" s="13"/>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
+      <c r="A104" s="13"/>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
+      <c r="A105" s="13"/>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
+      <c r="A106" s="13"/>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
+      <c r="A107" s="13"/>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
+      <c r="A108" s="13"/>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
+      <c r="A109" s="13"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="13"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="13"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="13"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="13"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="13"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="13"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
